--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/AccountsPayableBulkList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/AccountsPayableBulkList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\spin_20191010\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC910E66-FACA-46D9-9B42-1077C4C6E75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83FCE0-5029-4A93-96FC-87E75BC26813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,27 +151,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,48 +501,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="18.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="18.375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="10" customWidth="1"/>
+    <col min="6" max="7" width="18.375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/AccountsPayableBulkList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/AccountsPayableBulkList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\spin_20191010\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83FCE0-5029-4A93-96FC-87E75BC26813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>KAOATO</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Please input at yellow column</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>発注番号</t>
     <rPh sb="0" eb="2">
@@ -73,40 +96,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考1</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考2</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕入先請求番号</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入先</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>支払日</t>
+  </si>
+  <si>
+    <t>銀行</t>
+  </si>
+  <si>
+    <t>備考</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,18 +138,31 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,10 +221,25 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,52 +550,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="18.375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="10.625" style="1"/>
+    <col min="1" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="15" customWidth="1"/>
+    <col min="7" max="8" width="18.42578125" style="10" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="10.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="12.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="12.75" thickTop="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -552,5 +618,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>